--- a/final_data_pipeline/output/311422longform.xlsx
+++ b/final_data_pipeline/output/311422longform.xlsx
@@ -1367,7 +1367,7 @@
         <v>55</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1456,7 +1456,7 @@
         <v>55</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1545,7 +1545,7 @@
         <v>55</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1634,7 +1634,7 @@
         <v>55</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1723,7 +1723,7 @@
         <v>55</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -1812,7 +1812,7 @@
         <v>55</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB14">
         <v>8000</v>
@@ -1901,7 +1901,7 @@
         <v>55</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB15">
         <v>8000</v>
@@ -1990,7 +1990,7 @@
         <v>55</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB16">
         <v>8000</v>
@@ -2079,7 +2079,7 @@
         <v>55</v>
       </c>
       <c r="AA17">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB17">
         <v>8000</v>
@@ -2168,7 +2168,7 @@
         <v>55</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB18">
         <v>8000</v>
@@ -2257,7 +2257,7 @@
         <v>55</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB19">
         <v>8000</v>
@@ -2346,7 +2346,7 @@
         <v>55</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB20">
         <v>8000</v>
@@ -2435,7 +2435,7 @@
         <v>55</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB21">
         <v>8000</v>
@@ -2524,7 +2524,7 @@
         <v>55</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB22">
         <v>8000</v>
@@ -2613,7 +2613,7 @@
         <v>55</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB23">
         <v>8000</v>
@@ -2702,7 +2702,7 @@
         <v>55</v>
       </c>
       <c r="AA24">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB24">
         <v>8000</v>
@@ -2791,7 +2791,7 @@
         <v>55</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB25">
         <v>8000</v>
@@ -2880,7 +2880,7 @@
         <v>55</v>
       </c>
       <c r="AA26">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB26">
         <v>8000</v>
@@ -2969,7 +2969,7 @@
         <v>55</v>
       </c>
       <c r="AA27">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB27">
         <v>8000</v>
@@ -3058,7 +3058,7 @@
         <v>55</v>
       </c>
       <c r="AA28">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB28">
         <v>8000</v>
@@ -3147,7 +3147,7 @@
         <v>55</v>
       </c>
       <c r="AA29">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB29">
         <v>8000</v>
@@ -3236,7 +3236,7 @@
         <v>55</v>
       </c>
       <c r="AA30">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB30">
         <v>8000</v>
@@ -3325,7 +3325,7 @@
         <v>55</v>
       </c>
       <c r="AA31">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB31">
         <v>8000</v>
@@ -3414,7 +3414,7 @@
         <v>55</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB32">
         <v>8000</v>
@@ -3503,7 +3503,7 @@
         <v>55</v>
       </c>
       <c r="AA33">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB33">
         <v>8000</v>
@@ -3592,7 +3592,7 @@
         <v>55</v>
       </c>
       <c r="AA34">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB34">
         <v>8000</v>
@@ -3681,7 +3681,7 @@
         <v>55</v>
       </c>
       <c r="AA35">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB35">
         <v>8000</v>
@@ -3770,7 +3770,7 @@
         <v>55</v>
       </c>
       <c r="AA36">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB36">
         <v>8000</v>
